--- a/workforce_planning.xlsx
+++ b/workforce_planning.xlsx
@@ -14,6 +14,47 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$E$2:$E$13,Sheet1!$H$2:$H$13</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$E$2:$E$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$I$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$J$2:$J$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$J$2:$J$13</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$E$18</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$B$22</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$B$23</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$2:$D$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$D$2:$D$13</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Month</t>
   </si>
@@ -71,20 +112,71 @@
     <t>December</t>
   </si>
   <si>
-    <t>Deficit</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Overtime Cost per Day</t>
+  </si>
+  <si>
+    <t>New Worker Pay per Month</t>
+  </si>
+  <si>
+    <t>New Worker Days per Month</t>
+  </si>
+  <si>
+    <t>New Worker Cost per Day</t>
+  </si>
+  <si>
+    <t>Max Trainees per Month</t>
+  </si>
+  <si>
+    <t>New Worker Days</t>
+  </si>
+  <si>
+    <t>Trainees</t>
+  </si>
+  <si>
+    <t>New Worker Cost</t>
+  </si>
+  <si>
+    <t>Overtime Days</t>
+  </si>
+  <si>
+    <t>Overtime Cost</t>
+  </si>
+  <si>
+    <t>Additional Days</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Deficit (Abs)</t>
+  </si>
+  <si>
+    <t>Question 1: $16,744,000 is incurred in overtime if no new hires are made in the year.</t>
+  </si>
+  <si>
+    <t>Max Overtime</t>
+  </si>
+  <si>
+    <t>Extra Street Cleaning Days</t>
+  </si>
+  <si>
+    <t>Question 3: 383 hires would be hired in total.  30.5 in March, 69 in April, 183.5 in May and 100 in June.</t>
+  </si>
+  <si>
+    <t>Question 2: With hiring the total additional cost for the year is $12,988,912</t>
+  </si>
+  <si>
+    <t>Question 4: Keeping the OT limit of $3 million and adding the additional work a total of 536 new workers would need to be hired. 30.5 in March, 69 in April, 183.5 in May, 252.5 in June and 1 in July</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +189,43 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -128,6 +257,14 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,21 +545,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,10 +577,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -447,14 +612,35 @@
         <v>96200</v>
       </c>
       <c r="D2" s="2">
-        <f>MIN(0, C2-B2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <f>ABS(MIN(0, C2-B2)) + K2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*B19</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2*$B$18</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>F2+H2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -465,11 +651,36 @@
         <v>92950</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D13" si="0">MIN(0, C3-B3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <f>ABS(MIN(0, C3-B3)) + K3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>F2+E2*$B$20</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>G2+E3*$B$19</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="0">H3*$B$18</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="1">F3+H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -480,11 +691,36 @@
         <v>95160</v>
       </c>
       <c r="D4" s="2">
+        <f>ABS(MIN(0, C4-B4)) + K4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30.588235294117638</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F13" si="2">F3+E3*$B$20</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G13" si="3">G3+E4*$B$19</f>
+        <v>102776.47058823526</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -495,11 +731,36 @@
         <v>90220</v>
       </c>
       <c r="D5" s="2">
+        <f>ABS(MIN(0, C5-B5)) + K5</f>
+        <v>520</v>
+      </c>
+      <c r="E5" s="4">
+        <v>68.82352941176471</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>519.99999999999989</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>334023.5294117647</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>-520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>519.99999999999989</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -510,11 +771,36 @@
         <v>89570</v>
       </c>
       <c r="D6" s="2">
+        <f>ABS(MIN(0, C6-B6)) + K6</f>
+        <v>1690</v>
+      </c>
+      <c r="E6" s="4">
+        <v>183.52941176470588</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1690</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>950682.3529411765</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>-1690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1690</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -525,11 +811,36 @@
         <v>87230</v>
       </c>
       <c r="D7" s="2">
+        <f>ABS(MIN(0, C7-B7)) + K7</f>
+        <v>4810</v>
+      </c>
+      <c r="E7" s="4">
+        <v>252.60504201680675</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>4810</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1799435.2941176472</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>-4810</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4810</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -540,11 +851,37 @@
         <v>86450</v>
       </c>
       <c r="D8" s="2">
+        <f>ABS(MIN(0, C8-B8)) + K8</f>
+        <v>14040</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>1799435.2941176472</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4935.7142857142853</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>-11440</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1727499.9999999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>14040</v>
+      </c>
+      <c r="K8">
+        <f>26*$B$24</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,11 +892,37 @@
         <v>85540</v>
       </c>
       <c r="D9" s="2">
+        <f>ABS(MIN(0, C9-B9)) + K9</f>
+        <v>12740</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>1799435.2941176472</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3635.7142857142853</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>-10140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1272499.9999999998</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>12740</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K14" si="4">26*$B$24</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -570,11 +933,37 @@
         <v>88920</v>
       </c>
       <c r="D10" s="2">
+        <f>ABS(MIN(0, C10-B10)) + K10</f>
+        <v>8840</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1799435.2941176472</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>-6240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -585,11 +974,37 @@
         <v>88010</v>
       </c>
       <c r="D11" s="2">
+        <f>ABS(MIN(0, C11-B11)) + K11</f>
+        <v>7540</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1799435.2941176472</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>-4940</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -600,11 +1015,37 @@
         <v>86840</v>
       </c>
       <c r="D12" s="2">
+        <f>ABS(MIN(0, C12-B12)) + K12</f>
+        <v>8190</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1799435.2941176472</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>-5590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -615,25 +1056,163 @@
         <v>88660</v>
       </c>
       <c r="D13" s="2">
+        <f>ABS(MIN(0, C13-B13)) + K13</f>
+        <v>5070</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>1799435.2941176472</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
-        <v>-2470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>9104.2857142857138</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8">
         <f>SUM(B2:B13)</f>
         <v>1102270</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" ref="C14:D14" si="1">SUM(C2:C13)</f>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:E14" si="5">SUM(C2:C13)</f>
         <v>1075750</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>-47840</v>
+      <c r="D14" s="8">
+        <f t="shared" si="5"/>
+        <v>63440</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="5"/>
+        <v>535.54621848739498</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F2:F13)</f>
+        <v>61645.714285714275</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G2:G13)</f>
+        <v>13983529.411764707</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" ref="H14:K14" si="6">SUM(H2:H13)</f>
+        <v>8571.4285714285706</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="6"/>
+        <v>2999999.9999999995</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="6"/>
+        <v>70217.142857142841</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>350</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="6">
+        <f>G14+I14</f>
+        <v>16983529.411764707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f>B19/B20</f>
+        <v>197.64705882352942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
